--- a/grupos/3APV - Estadisticos 20211.xlsx
+++ b/grupos/3APV - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="108">
   <si>
     <t>Materia</t>
   </si>
@@ -146,16 +146,16 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Camarillo Aburto Raymundo</t>
+  </si>
+  <si>
+    <t>González Nuñez Veronica</t>
+  </si>
+  <si>
     <t>Muñoz Rivadeneyra Salvador</t>
   </si>
   <si>
-    <t>González Nuñez Veronica</t>
-  </si>
-  <si>
     <t>Hernández Mendoza Delfina</t>
-  </si>
-  <si>
-    <t>Camarillo Aburto Raymundo</t>
   </si>
   <si>
     <t>Sánchez Sánchez Miguel</t>
@@ -836,16 +836,16 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>-1</v>
@@ -890,16 +890,16 @@
         <v>10</v>
       </c>
       <c r="V4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -990,16 +990,16 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>-1</v>
@@ -1044,16 +1044,16 @@
         <v>10</v>
       </c>
       <c r="V6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1070,10 +1070,10 @@
         <v>-1</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -1124,10 +1124,10 @@
         <v>-1</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y7">
         <v>-1</v>
@@ -1150,7 +1150,7 @@
         <v>-1</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -1204,7 +1204,7 @@
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y8">
         <v>-1</v>
@@ -1224,13 +1224,13 @@
         <v>-1</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H9">
         <v>-1</v>
@@ -1278,13 +1278,13 @@
         <v>-1</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1304,7 +1304,7 @@
         <v>-1</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -1358,7 +1358,7 @@
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y10">
         <v>-1</v>
@@ -1375,16 +1375,16 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>-1</v>
@@ -1429,16 +1429,16 @@
         <v>8</v>
       </c>
       <c r="V11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1452,16 +1452,16 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H12">
         <v>-1</v>
@@ -1506,16 +1506,16 @@
         <v>10</v>
       </c>
       <c r="V12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1529,13 +1529,13 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -1583,13 +1583,13 @@
         <v>10</v>
       </c>
       <c r="V13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y13">
         <v>-1</v>
@@ -1606,16 +1606,16 @@
         <v>10</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H14">
         <v>-1</v>
@@ -1660,16 +1660,16 @@
         <v>10</v>
       </c>
       <c r="V14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1683,16 +1683,16 @@
         <v>10</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H15">
         <v>-1</v>
@@ -1737,16 +1737,16 @@
         <v>10</v>
       </c>
       <c r="V15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1763,13 +1763,13 @@
         <v>-1</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <v>-1</v>
@@ -1817,13 +1817,13 @@
         <v>-1</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1843,10 +1843,10 @@
         <v>-1</v>
       </c>
       <c r="F17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H17">
         <v>-1</v>
@@ -1897,10 +1897,10 @@
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1917,13 +1917,13 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H18">
         <v>-1</v>
@@ -1971,13 +1971,13 @@
         <v>-1</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1997,10 +1997,10 @@
         <v>-1</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H19">
         <v>-1</v>
@@ -2051,10 +2051,10 @@
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2074,7 +2074,7 @@
         <v>-1</v>
       </c>
       <c r="F20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G20">
         <v>-1</v>
@@ -2128,7 +2128,7 @@
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y20">
         <v>-1</v>
@@ -2151,7 +2151,7 @@
         <v>-1</v>
       </c>
       <c r="F21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G21">
         <v>-1</v>
@@ -2205,7 +2205,7 @@
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y21">
         <v>-1</v>
@@ -2228,7 +2228,7 @@
         <v>-1</v>
       </c>
       <c r="F22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G22">
         <v>-1</v>
@@ -2282,7 +2282,7 @@
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y22">
         <v>-1</v>
@@ -2299,13 +2299,13 @@
         <v>7</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>-1</v>
       </c>
       <c r="F23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G23">
         <v>-1</v>
@@ -2353,13 +2353,13 @@
         <v>7</v>
       </c>
       <c r="V23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y23">
         <v>-1</v>
@@ -2382,7 +2382,7 @@
         <v>-1</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G24">
         <v>-1</v>
@@ -2436,7 +2436,7 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y24">
         <v>-1</v>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -2507,22 +2507,25 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>38.1</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>7.9</v>
+      </c>
       <c r="I2">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2536,27 +2539,30 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>47.62</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>47.62</v>
+      </c>
+      <c r="H3">
+        <v>7.2</v>
       </c>
       <c r="I3">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
@@ -2565,27 +2571,30 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>52.38</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
       <c r="I4">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>47.62</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
@@ -2594,22 +2603,25 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>52.38</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5">
+        <v>9.300000000000001</v>
+      </c>
       <c r="I5">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>47.62</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2730,7 +2742,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2770,7 +2782,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2790,7 +2802,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2850,7 +2862,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2890,7 +2902,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2910,7 +2922,7 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2970,7 +2982,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3010,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3030,7 +3042,7 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3090,7 +3102,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3130,7 +3142,7 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3150,7 +3162,7 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3210,7 +3222,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3250,7 +3262,7 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3270,7 +3282,7 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3330,7 +3342,7 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3370,7 +3382,7 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3390,7 +3402,7 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3450,7 +3462,7 @@
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3490,7 +3502,7 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3510,7 +3522,7 @@
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3570,7 +3582,7 @@
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3610,7 +3622,7 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3630,7 +3642,7 @@
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3690,7 +3702,7 @@
         <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3730,7 +3742,7 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3750,7 +3762,7 @@
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3810,7 +3822,7 @@
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3850,7 +3862,7 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3870,7 +3882,7 @@
         <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3930,7 +3942,7 @@
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3970,7 +3982,7 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3990,7 +4002,7 @@
         <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4050,7 +4062,7 @@
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4090,7 +4102,7 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4110,7 +4122,7 @@
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4170,7 +4182,7 @@
         <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4210,7 +4222,7 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4230,7 +4242,7 @@
         <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4290,7 +4302,7 @@
         <v>8</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4330,7 +4342,7 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4350,7 +4362,7 @@
         <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4410,7 +4422,7 @@
         <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4450,7 +4462,7 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4470,7 +4482,7 @@
         <v>7</v>
       </c>
       <c r="F89" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4530,7 +4542,7 @@
         <v>8</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4570,7 +4582,7 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4590,7 +4602,7 @@
         <v>7</v>
       </c>
       <c r="F95" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4650,7 +4662,7 @@
         <v>8</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4690,7 +4702,7 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4710,7 +4722,7 @@
         <v>7</v>
       </c>
       <c r="F101" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4770,7 +4782,7 @@
         <v>8</v>
       </c>
       <c r="F104" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4810,7 +4822,7 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4830,7 +4842,7 @@
         <v>7</v>
       </c>
       <c r="F107" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4890,7 +4902,7 @@
         <v>8</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4930,7 +4942,7 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4950,7 +4962,7 @@
         <v>7</v>
       </c>
       <c r="F113" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -5010,7 +5022,7 @@
         <v>8</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -5050,7 +5062,7 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -5070,7 +5082,7 @@
         <v>7</v>
       </c>
       <c r="F119" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -5130,7 +5142,7 @@
         <v>8</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -5170,7 +5182,7 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -5190,7 +5202,7 @@
         <v>7</v>
       </c>
       <c r="F125" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -5631,7 +5643,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5664,6 +5676,121 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920268</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920270</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19220030050208</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920273</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20330051920276</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/3APV - Estadisticos 20211.xlsx
+++ b/grupos/3APV - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="108">
   <si>
     <t>Materia</t>
   </si>
@@ -146,18 +146,18 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>González Nuñez Veronica</t>
+  </si>
+  <si>
+    <t>Muñoz Rivadeneyra Salvador</t>
+  </si>
+  <si>
+    <t>Hernández Mendoza Delfina</t>
+  </si>
+  <si>
     <t>Camarillo Aburto Raymundo</t>
   </si>
   <si>
-    <t>González Nuñez Veronica</t>
-  </si>
-  <si>
-    <t>Muñoz Rivadeneyra Salvador</t>
-  </si>
-  <si>
-    <t>Hernández Mendoza Delfina</t>
-  </si>
-  <si>
     <t>Sánchez Sánchez Miguel</t>
   </si>
   <si>
@@ -176,30 +176,120 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>BENITEZ</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>TELLEZ</t>
+  </si>
+  <si>
+    <t>TINOCO</t>
+  </si>
+  <si>
+    <t>ZUNO</t>
+  </si>
+  <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>GARNICA</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>ANA KAREN</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>LEONARDO GAEL</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>ELIAS ALONSO</t>
+  </si>
+  <si>
+    <t>DANIEL ELEAZAR</t>
+  </si>
+  <si>
+    <t>IRVING JAIR</t>
+  </si>
+  <si>
+    <t>MARCO JOSAFAT</t>
+  </si>
+  <si>
+    <t>AXEL YAEL</t>
+  </si>
+  <si>
+    <t>MARISOL</t>
+  </si>
+  <si>
+    <t>ERNESTO</t>
+  </si>
+  <si>
+    <t>URIEL ALFREDO</t>
+  </si>
+  <si>
     <t>BALTAZARES</t>
   </si>
   <si>
-    <t>BENITEZ</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
     <t>CASTILLO</t>
   </si>
   <si>
-    <t>CLEMENTE</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
     <t>GUTIERREZ</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
     <t>LOPEZ</t>
   </si>
   <si>
@@ -209,105 +299,36 @@
     <t>LUNA</t>
   </si>
   <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
     <t>OJEDA</t>
   </si>
   <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>TELLEZ</t>
-  </si>
-  <si>
-    <t>TINOCO</t>
-  </si>
-  <si>
-    <t>ZUNO</t>
-  </si>
-  <si>
     <t>CONTRERAS</t>
   </si>
   <si>
-    <t>BAEZ</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>GARNICA</t>
-  </si>
-  <si>
-    <t>ANDRADE</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
     <t>VILLA</t>
   </si>
   <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
     <t>CARRASCO</t>
   </si>
   <si>
     <t>CORDOVA</t>
   </si>
   <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
     <t>JIMENEZ</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
     <t>IVETTE</t>
   </si>
   <si>
-    <t>ANA KAREN</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO</t>
-  </si>
-  <si>
     <t>IAN URIEL</t>
   </si>
   <si>
-    <t>LEONARDO GAEL</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
     <t>JESUS HUMBERTO</t>
   </si>
   <si>
     <t>MARTIN</t>
   </si>
   <si>
-    <t>ELIAS ALONSO</t>
-  </si>
-  <si>
     <t>KARLA RENATA</t>
   </si>
   <si>
@@ -320,28 +341,7 @@
     <t>MIRANDA</t>
   </si>
   <si>
-    <t>DANIEL ELEAZAR</t>
-  </si>
-  <si>
     <t>KAREN YAZMIN</t>
-  </si>
-  <si>
-    <t>IRVING JAIR</t>
-  </si>
-  <si>
-    <t>MARCO JOSAFAT</t>
-  </si>
-  <si>
-    <t>AXEL YAEL</t>
-  </si>
-  <si>
-    <t>MARISOL</t>
-  </si>
-  <si>
-    <t>ERNESTO</t>
-  </si>
-  <si>
-    <t>URIEL ALFREDO</t>
   </si>
 </sst>
 </file>
@@ -913,7 +913,7 @@
         <v>-1</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>-1</v>
@@ -967,7 +967,7 @@
         <v>-1</v>
       </c>
       <c r="V5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -1067,7 +1067,7 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1121,7 +1121,7 @@
         <v>7</v>
       </c>
       <c r="V7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W7">
         <v>6</v>
@@ -1144,7 +1144,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>-1</v>
@@ -1198,7 +1198,7 @@
         <v>7</v>
       </c>
       <c r="V8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W8">
         <v>-1</v>
@@ -1221,7 +1221,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1275,7 +1275,7 @@
         <v>8</v>
       </c>
       <c r="V9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W9">
         <v>8</v>
@@ -1298,7 +1298,7 @@
         <v>-1</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>-1</v>
@@ -1352,7 +1352,7 @@
         <v>-1</v>
       </c>
       <c r="V10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1760,7 +1760,7 @@
         <v>10</v>
       </c>
       <c r="D16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>7</v>
@@ -1814,7 +1814,7 @@
         <v>10</v>
       </c>
       <c r="V16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W16">
         <v>7</v>
@@ -1837,7 +1837,7 @@
         <v>8</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E17">
         <v>-1</v>
@@ -1891,7 +1891,7 @@
         <v>8</v>
       </c>
       <c r="V17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -1914,7 +1914,7 @@
         <v>10</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>9</v>
@@ -1968,7 +1968,7 @@
         <v>10</v>
       </c>
       <c r="V18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W18">
         <v>9</v>
@@ -1991,7 +1991,7 @@
         <v>7</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E19">
         <v>-1</v>
@@ -2045,7 +2045,7 @@
         <v>7</v>
       </c>
       <c r="V19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2068,7 +2068,7 @@
         <v>-1</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E20">
         <v>-1</v>
@@ -2122,7 +2122,7 @@
         <v>-1</v>
       </c>
       <c r="V20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2145,7 +2145,7 @@
         <v>8</v>
       </c>
       <c r="D21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <v>-1</v>
@@ -2199,7 +2199,7 @@
         <v>8</v>
       </c>
       <c r="V21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2222,7 +2222,7 @@
         <v>7</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E22">
         <v>-1</v>
@@ -2276,7 +2276,7 @@
         <v>7</v>
       </c>
       <c r="V22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W22">
         <v>-1</v>
@@ -2376,7 +2376,7 @@
         <v>-1</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E24">
         <v>-1</v>
@@ -2430,7 +2430,7 @@
         <v>-1</v>
       </c>
       <c r="V24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -2507,30 +2507,30 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>38.1</v>
+        <v>47.62</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>47.62</v>
       </c>
       <c r="H2">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>61.9</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
@@ -2539,30 +2539,30 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F3">
+        <v>52.38</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
         <v>47.62</v>
-      </c>
-      <c r="G3">
-        <v>47.62</v>
-      </c>
-      <c r="H3">
-        <v>7.2</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>4.76</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I4">
         <v>10</v>
@@ -2594,7 +2594,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
@@ -2603,25 +2603,25 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>57.14</v>
+      </c>
+      <c r="G5">
+        <v>42.86</v>
+      </c>
+      <c r="H5">
+        <v>6.7</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>52.38</v>
-      </c>
-      <c r="G5">
+      <c r="J5">
         <v>0</v>
-      </c>
-      <c r="H5">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="J5">
-        <v>47.62</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2695,7 +2695,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2727,216 +2727,216 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>20330051920260</v>
+        <v>20330051920261</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920260</v>
+        <v>20330051920261</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920260</v>
+        <v>20330051920261</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920260</v>
+        <v>20330051920261</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920260</v>
+        <v>20330051920261</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920260</v>
+        <v>19330051920314</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920261</v>
+        <v>20330051920264</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920261</v>
+        <v>20330051920264</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920261</v>
+        <v>20330051920267</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920261</v>
+        <v>20330051920267</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920261</v>
+        <v>20330051920267</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -2947,16 +2947,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920261</v>
+        <v>20330051920267</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
@@ -2967,19 +2967,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920314</v>
+        <v>20330051920270</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
         <v>44</v>
@@ -2987,19 +2987,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920314</v>
+        <v>20330051920274</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
         <v>43</v>
@@ -3007,119 +3007,119 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920314</v>
+        <v>19330051920238</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920314</v>
+        <v>20330051920278</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920314</v>
+        <v>20330051920278</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920314</v>
+        <v>20330051920278</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920262</v>
+        <v>20330051920278</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920262</v>
+        <v>20330051920279</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
         <v>43</v>
@@ -3127,99 +3127,99 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920262</v>
+        <v>20330051920279</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920262</v>
+        <v>20330051920281</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920262</v>
+        <v>20330051920281</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920262</v>
+        <v>20330051920282</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920264</v>
+        <v>20330051920282</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
         <v>44</v>
@@ -3227,19 +3227,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920264</v>
+        <v>19330051920425</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
         <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
         <v>43</v>
@@ -3247,2001 +3247,61 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920264</v>
+        <v>19330051920425</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
         <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920264</v>
+        <v>19330051920425</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
         <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920264</v>
+        <v>19330051920425</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
         <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>20330051920264</v>
-      </c>
-      <c r="B31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>20330051920267</v>
-      </c>
-      <c r="B32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>20330051920267</v>
-      </c>
-      <c r="B33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>20330051920267</v>
-      </c>
-      <c r="B34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>20330051920267</v>
-      </c>
-      <c r="B35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" t="s">
-        <v>92</v>
-      </c>
-      <c r="E35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>20330051920267</v>
-      </c>
-      <c r="B36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>20330051920267</v>
-      </c>
-      <c r="B37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>20330051920268</v>
-      </c>
-      <c r="B38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>20330051920268</v>
-      </c>
-      <c r="B39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>20330051920268</v>
-      </c>
-      <c r="B40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>20330051920268</v>
-      </c>
-      <c r="B41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>20330051920268</v>
-      </c>
-      <c r="B42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>20330051920268</v>
-      </c>
-      <c r="B43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>20330051920269</v>
-      </c>
-      <c r="B44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>20330051920269</v>
-      </c>
-      <c r="B45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" t="s">
-        <v>77</v>
-      </c>
-      <c r="D45" t="s">
-        <v>94</v>
-      </c>
-      <c r="E45" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>20330051920269</v>
-      </c>
-      <c r="B46" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>20330051920269</v>
-      </c>
-      <c r="B47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47" t="s">
-        <v>94</v>
-      </c>
-      <c r="E47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>20330051920269</v>
-      </c>
-      <c r="B48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" t="s">
-        <v>77</v>
-      </c>
-      <c r="D48" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>20330051920269</v>
-      </c>
-      <c r="B49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" t="s">
-        <v>94</v>
-      </c>
-      <c r="E49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>20330051920270</v>
-      </c>
-      <c r="B50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" t="s">
-        <v>95</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>20330051920270</v>
-      </c>
-      <c r="B51" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" t="s">
-        <v>95</v>
-      </c>
-      <c r="E51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>20330051920270</v>
-      </c>
-      <c r="B52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" t="s">
-        <v>78</v>
-      </c>
-      <c r="D52" t="s">
-        <v>95</v>
-      </c>
-      <c r="E52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>20330051920270</v>
-      </c>
-      <c r="B53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" t="s">
-        <v>78</v>
-      </c>
-      <c r="D53" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>20330051920270</v>
-      </c>
-      <c r="B54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54" t="s">
-        <v>95</v>
-      </c>
-      <c r="E54" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>20330051920270</v>
-      </c>
-      <c r="B55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" t="s">
-        <v>78</v>
-      </c>
-      <c r="D55" t="s">
-        <v>95</v>
-      </c>
-      <c r="E55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>20330051920271</v>
-      </c>
-      <c r="B56" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" t="s">
-        <v>79</v>
-      </c>
-      <c r="D56" t="s">
-        <v>96</v>
-      </c>
-      <c r="E56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>20330051920271</v>
-      </c>
-      <c r="B57" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" t="s">
-        <v>79</v>
-      </c>
-      <c r="D57" t="s">
-        <v>96</v>
-      </c>
-      <c r="E57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>20330051920271</v>
-      </c>
-      <c r="B58" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E58" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>20330051920271</v>
-      </c>
-      <c r="B59" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" t="s">
-        <v>96</v>
-      </c>
-      <c r="E59" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>20330051920271</v>
-      </c>
-      <c r="B60" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" t="s">
-        <v>79</v>
-      </c>
-      <c r="D60" t="s">
-        <v>96</v>
-      </c>
-      <c r="E60" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>20330051920271</v>
-      </c>
-      <c r="B61" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61" t="s">
-        <v>96</v>
-      </c>
-      <c r="E61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>20330051920272</v>
-      </c>
-      <c r="B62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" t="s">
-        <v>67</v>
-      </c>
-      <c r="D62" t="s">
-        <v>97</v>
-      </c>
-      <c r="E62" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>20330051920272</v>
-      </c>
-      <c r="B63" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" t="s">
-        <v>67</v>
-      </c>
-      <c r="D63" t="s">
-        <v>97</v>
-      </c>
-      <c r="E63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>20330051920272</v>
-      </c>
-      <c r="B64" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" t="s">
-        <v>67</v>
-      </c>
-      <c r="D64" t="s">
-        <v>97</v>
-      </c>
-      <c r="E64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>20330051920272</v>
-      </c>
-      <c r="B65" t="s">
-        <v>60</v>
-      </c>
-      <c r="C65" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" t="s">
-        <v>97</v>
-      </c>
-      <c r="E65" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>20330051920272</v>
-      </c>
-      <c r="B66" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" t="s">
-        <v>67</v>
-      </c>
-      <c r="D66" t="s">
-        <v>97</v>
-      </c>
-      <c r="E66" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>20330051920272</v>
-      </c>
-      <c r="B67" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" t="s">
-        <v>67</v>
-      </c>
-      <c r="D67" t="s">
-        <v>97</v>
-      </c>
-      <c r="E67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F67" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>19220030050208</v>
-      </c>
-      <c r="B68" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" t="s">
-        <v>80</v>
-      </c>
-      <c r="D68" t="s">
-        <v>98</v>
-      </c>
-      <c r="E68" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>19220030050208</v>
-      </c>
-      <c r="B69" t="s">
-        <v>61</v>
-      </c>
-      <c r="C69" t="s">
-        <v>80</v>
-      </c>
-      <c r="D69" t="s">
-        <v>98</v>
-      </c>
-      <c r="E69" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>19220030050208</v>
-      </c>
-      <c r="B70" t="s">
-        <v>61</v>
-      </c>
-      <c r="C70" t="s">
-        <v>80</v>
-      </c>
-      <c r="D70" t="s">
-        <v>98</v>
-      </c>
-      <c r="E70" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>19220030050208</v>
-      </c>
-      <c r="B71" t="s">
-        <v>61</v>
-      </c>
-      <c r="C71" t="s">
-        <v>80</v>
-      </c>
-      <c r="D71" t="s">
-        <v>98</v>
-      </c>
-      <c r="E71" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>19220030050208</v>
-      </c>
-      <c r="B72" t="s">
-        <v>61</v>
-      </c>
-      <c r="C72" t="s">
-        <v>80</v>
-      </c>
-      <c r="D72" t="s">
-        <v>98</v>
-      </c>
-      <c r="E72" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>19220030050208</v>
-      </c>
-      <c r="B73" t="s">
-        <v>61</v>
-      </c>
-      <c r="C73" t="s">
-        <v>80</v>
-      </c>
-      <c r="D73" t="s">
-        <v>98</v>
-      </c>
-      <c r="E73" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>20330051920273</v>
-      </c>
-      <c r="B74" t="s">
-        <v>62</v>
-      </c>
-      <c r="C74" t="s">
-        <v>76</v>
-      </c>
-      <c r="D74" t="s">
-        <v>99</v>
-      </c>
-      <c r="E74" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>20330051920273</v>
-      </c>
-      <c r="B75" t="s">
-        <v>62</v>
-      </c>
-      <c r="C75" t="s">
-        <v>76</v>
-      </c>
-      <c r="D75" t="s">
-        <v>99</v>
-      </c>
-      <c r="E75" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>20330051920273</v>
-      </c>
-      <c r="B76" t="s">
-        <v>62</v>
-      </c>
-      <c r="C76" t="s">
-        <v>76</v>
-      </c>
-      <c r="D76" t="s">
-        <v>99</v>
-      </c>
-      <c r="E76" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>20330051920273</v>
-      </c>
-      <c r="B77" t="s">
-        <v>62</v>
-      </c>
-      <c r="C77" t="s">
-        <v>76</v>
-      </c>
-      <c r="D77" t="s">
-        <v>99</v>
-      </c>
-      <c r="E77" t="s">
-        <v>7</v>
-      </c>
-      <c r="F77" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>20330051920273</v>
-      </c>
-      <c r="B78" t="s">
-        <v>62</v>
-      </c>
-      <c r="C78" t="s">
-        <v>76</v>
-      </c>
-      <c r="D78" t="s">
-        <v>99</v>
-      </c>
-      <c r="E78" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>20330051920273</v>
-      </c>
-      <c r="B79" t="s">
-        <v>62</v>
-      </c>
-      <c r="C79" t="s">
-        <v>76</v>
-      </c>
-      <c r="D79" t="s">
-        <v>99</v>
-      </c>
-      <c r="E79" t="s">
-        <v>5</v>
-      </c>
-      <c r="F79" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>20330051920274</v>
-      </c>
-      <c r="B80" t="s">
-        <v>63</v>
-      </c>
-      <c r="C80" t="s">
-        <v>81</v>
-      </c>
-      <c r="D80" t="s">
-        <v>100</v>
-      </c>
-      <c r="E80" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>20330051920274</v>
-      </c>
-      <c r="B81" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" t="s">
-        <v>81</v>
-      </c>
-      <c r="D81" t="s">
-        <v>100</v>
-      </c>
-      <c r="E81" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>20330051920274</v>
-      </c>
-      <c r="B82" t="s">
-        <v>63</v>
-      </c>
-      <c r="C82" t="s">
-        <v>81</v>
-      </c>
-      <c r="D82" t="s">
-        <v>100</v>
-      </c>
-      <c r="E82" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>20330051920274</v>
-      </c>
-      <c r="B83" t="s">
-        <v>63</v>
-      </c>
-      <c r="C83" t="s">
-        <v>81</v>
-      </c>
-      <c r="D83" t="s">
-        <v>100</v>
-      </c>
-      <c r="E83" t="s">
-        <v>7</v>
-      </c>
-      <c r="F83" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>20330051920274</v>
-      </c>
-      <c r="B84" t="s">
-        <v>63</v>
-      </c>
-      <c r="C84" t="s">
-        <v>81</v>
-      </c>
-      <c r="D84" t="s">
-        <v>100</v>
-      </c>
-      <c r="E84" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>20330051920274</v>
-      </c>
-      <c r="B85" t="s">
-        <v>63</v>
-      </c>
-      <c r="C85" t="s">
-        <v>81</v>
-      </c>
-      <c r="D85" t="s">
-        <v>100</v>
-      </c>
-      <c r="E85" t="s">
-        <v>5</v>
-      </c>
-      <c r="F85" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>20330051920276</v>
-      </c>
-      <c r="B86" t="s">
-        <v>64</v>
-      </c>
-      <c r="C86" t="s">
-        <v>82</v>
-      </c>
-      <c r="D86" t="s">
-        <v>101</v>
-      </c>
-      <c r="E86" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>20330051920276</v>
-      </c>
-      <c r="B87" t="s">
-        <v>64</v>
-      </c>
-      <c r="C87" t="s">
-        <v>82</v>
-      </c>
-      <c r="D87" t="s">
-        <v>101</v>
-      </c>
-      <c r="E87" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>20330051920276</v>
-      </c>
-      <c r="B88" t="s">
-        <v>64</v>
-      </c>
-      <c r="C88" t="s">
-        <v>82</v>
-      </c>
-      <c r="D88" t="s">
-        <v>101</v>
-      </c>
-      <c r="E88" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>20330051920276</v>
-      </c>
-      <c r="B89" t="s">
-        <v>64</v>
-      </c>
-      <c r="C89" t="s">
-        <v>82</v>
-      </c>
-      <c r="D89" t="s">
-        <v>101</v>
-      </c>
-      <c r="E89" t="s">
-        <v>7</v>
-      </c>
-      <c r="F89" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>20330051920276</v>
-      </c>
-      <c r="B90" t="s">
-        <v>64</v>
-      </c>
-      <c r="C90" t="s">
-        <v>82</v>
-      </c>
-      <c r="D90" t="s">
-        <v>101</v>
-      </c>
-      <c r="E90" t="s">
-        <v>6</v>
-      </c>
-      <c r="F90" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>20330051920276</v>
-      </c>
-      <c r="B91" t="s">
-        <v>64</v>
-      </c>
-      <c r="C91" t="s">
-        <v>82</v>
-      </c>
-      <c r="D91" t="s">
-        <v>101</v>
-      </c>
-      <c r="E91" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>19330051920238</v>
-      </c>
-      <c r="B92" t="s">
-        <v>65</v>
-      </c>
-      <c r="C92" t="s">
-        <v>83</v>
-      </c>
-      <c r="D92" t="s">
-        <v>102</v>
-      </c>
-      <c r="E92" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>19330051920238</v>
-      </c>
-      <c r="B93" t="s">
-        <v>65</v>
-      </c>
-      <c r="C93" t="s">
-        <v>83</v>
-      </c>
-      <c r="D93" t="s">
-        <v>102</v>
-      </c>
-      <c r="E93" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>19330051920238</v>
-      </c>
-      <c r="B94" t="s">
-        <v>65</v>
-      </c>
-      <c r="C94" t="s">
-        <v>83</v>
-      </c>
-      <c r="D94" t="s">
-        <v>102</v>
-      </c>
-      <c r="E94" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>19330051920238</v>
-      </c>
-      <c r="B95" t="s">
-        <v>65</v>
-      </c>
-      <c r="C95" t="s">
-        <v>83</v>
-      </c>
-      <c r="D95" t="s">
-        <v>102</v>
-      </c>
-      <c r="E95" t="s">
-        <v>7</v>
-      </c>
-      <c r="F95" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>19330051920238</v>
-      </c>
-      <c r="B96" t="s">
-        <v>65</v>
-      </c>
-      <c r="C96" t="s">
-        <v>83</v>
-      </c>
-      <c r="D96" t="s">
-        <v>102</v>
-      </c>
-      <c r="E96" t="s">
-        <v>6</v>
-      </c>
-      <c r="F96" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>19330051920238</v>
-      </c>
-      <c r="B97" t="s">
-        <v>65</v>
-      </c>
-      <c r="C97" t="s">
-        <v>83</v>
-      </c>
-      <c r="D97" t="s">
-        <v>102</v>
-      </c>
-      <c r="E97" t="s">
-        <v>5</v>
-      </c>
-      <c r="F97" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>20330051920278</v>
-      </c>
-      <c r="B98" t="s">
-        <v>66</v>
-      </c>
-      <c r="C98" t="s">
-        <v>84</v>
-      </c>
-      <c r="D98" t="s">
-        <v>103</v>
-      </c>
-      <c r="E98" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>20330051920278</v>
-      </c>
-      <c r="B99" t="s">
-        <v>66</v>
-      </c>
-      <c r="C99" t="s">
-        <v>84</v>
-      </c>
-      <c r="D99" t="s">
-        <v>103</v>
-      </c>
-      <c r="E99" t="s">
-        <v>9</v>
-      </c>
-      <c r="F99" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>20330051920278</v>
-      </c>
-      <c r="B100" t="s">
-        <v>66</v>
-      </c>
-      <c r="C100" t="s">
-        <v>84</v>
-      </c>
-      <c r="D100" t="s">
-        <v>103</v>
-      </c>
-      <c r="E100" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>20330051920278</v>
-      </c>
-      <c r="B101" t="s">
-        <v>66</v>
-      </c>
-      <c r="C101" t="s">
-        <v>84</v>
-      </c>
-      <c r="D101" t="s">
-        <v>103</v>
-      </c>
-      <c r="E101" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>20330051920278</v>
-      </c>
-      <c r="B102" t="s">
-        <v>66</v>
-      </c>
-      <c r="C102" t="s">
-        <v>84</v>
-      </c>
-      <c r="D102" t="s">
-        <v>103</v>
-      </c>
-      <c r="E102" t="s">
-        <v>6</v>
-      </c>
-      <c r="F102" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>20330051920278</v>
-      </c>
-      <c r="B103" t="s">
-        <v>66</v>
-      </c>
-      <c r="C103" t="s">
-        <v>84</v>
-      </c>
-      <c r="D103" t="s">
-        <v>103</v>
-      </c>
-      <c r="E103" t="s">
-        <v>5</v>
-      </c>
-      <c r="F103" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>20330051920279</v>
-      </c>
-      <c r="B104" t="s">
-        <v>67</v>
-      </c>
-      <c r="C104" t="s">
-        <v>85</v>
-      </c>
-      <c r="D104" t="s">
-        <v>104</v>
-      </c>
-      <c r="E104" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>20330051920279</v>
-      </c>
-      <c r="B105" t="s">
-        <v>67</v>
-      </c>
-      <c r="C105" t="s">
-        <v>85</v>
-      </c>
-      <c r="D105" t="s">
-        <v>104</v>
-      </c>
-      <c r="E105" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>20330051920279</v>
-      </c>
-      <c r="B106" t="s">
-        <v>67</v>
-      </c>
-      <c r="C106" t="s">
-        <v>85</v>
-      </c>
-      <c r="D106" t="s">
-        <v>104</v>
-      </c>
-      <c r="E106" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>20330051920279</v>
-      </c>
-      <c r="B107" t="s">
-        <v>67</v>
-      </c>
-      <c r="C107" t="s">
-        <v>85</v>
-      </c>
-      <c r="D107" t="s">
-        <v>104</v>
-      </c>
-      <c r="E107" t="s">
-        <v>7</v>
-      </c>
-      <c r="F107" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>20330051920279</v>
-      </c>
-      <c r="B108" t="s">
-        <v>67</v>
-      </c>
-      <c r="C108" t="s">
-        <v>85</v>
-      </c>
-      <c r="D108" t="s">
-        <v>104</v>
-      </c>
-      <c r="E108" t="s">
-        <v>6</v>
-      </c>
-      <c r="F108" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>20330051920279</v>
-      </c>
-      <c r="B109" t="s">
-        <v>67</v>
-      </c>
-      <c r="C109" t="s">
-        <v>85</v>
-      </c>
-      <c r="D109" t="s">
-        <v>104</v>
-      </c>
-      <c r="E109" t="s">
-        <v>5</v>
-      </c>
-      <c r="F109" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>20330051920281</v>
-      </c>
-      <c r="B110" t="s">
-        <v>68</v>
-      </c>
-      <c r="C110" t="s">
-        <v>86</v>
-      </c>
-      <c r="D110" t="s">
-        <v>105</v>
-      </c>
-      <c r="E110" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>20330051920281</v>
-      </c>
-      <c r="B111" t="s">
-        <v>68</v>
-      </c>
-      <c r="C111" t="s">
-        <v>86</v>
-      </c>
-      <c r="D111" t="s">
-        <v>105</v>
-      </c>
-      <c r="E111" t="s">
-        <v>9</v>
-      </c>
-      <c r="F111" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>20330051920281</v>
-      </c>
-      <c r="B112" t="s">
-        <v>68</v>
-      </c>
-      <c r="C112" t="s">
-        <v>86</v>
-      </c>
-      <c r="D112" t="s">
-        <v>105</v>
-      </c>
-      <c r="E112" t="s">
-        <v>10</v>
-      </c>
-      <c r="F112" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>20330051920281</v>
-      </c>
-      <c r="B113" t="s">
-        <v>68</v>
-      </c>
-      <c r="C113" t="s">
-        <v>86</v>
-      </c>
-      <c r="D113" t="s">
-        <v>105</v>
-      </c>
-      <c r="E113" t="s">
-        <v>7</v>
-      </c>
-      <c r="F113" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>20330051920281</v>
-      </c>
-      <c r="B114" t="s">
-        <v>68</v>
-      </c>
-      <c r="C114" t="s">
-        <v>86</v>
-      </c>
-      <c r="D114" t="s">
-        <v>105</v>
-      </c>
-      <c r="E114" t="s">
-        <v>6</v>
-      </c>
-      <c r="F114" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>20330051920281</v>
-      </c>
-      <c r="B115" t="s">
-        <v>68</v>
-      </c>
-      <c r="C115" t="s">
-        <v>86</v>
-      </c>
-      <c r="D115" t="s">
-        <v>105</v>
-      </c>
-      <c r="E115" t="s">
-        <v>5</v>
-      </c>
-      <c r="F115" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>20330051920282</v>
-      </c>
-      <c r="B116" t="s">
-        <v>69</v>
-      </c>
-      <c r="C116" t="s">
-        <v>66</v>
-      </c>
-      <c r="D116" t="s">
-        <v>106</v>
-      </c>
-      <c r="E116" t="s">
-        <v>8</v>
-      </c>
-      <c r="F116" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>20330051920282</v>
-      </c>
-      <c r="B117" t="s">
-        <v>69</v>
-      </c>
-      <c r="C117" t="s">
-        <v>66</v>
-      </c>
-      <c r="D117" t="s">
-        <v>106</v>
-      </c>
-      <c r="E117" t="s">
-        <v>9</v>
-      </c>
-      <c r="F117" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>20330051920282</v>
-      </c>
-      <c r="B118" t="s">
-        <v>69</v>
-      </c>
-      <c r="C118" t="s">
-        <v>66</v>
-      </c>
-      <c r="D118" t="s">
-        <v>106</v>
-      </c>
-      <c r="E118" t="s">
-        <v>10</v>
-      </c>
-      <c r="F118" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>20330051920282</v>
-      </c>
-      <c r="B119" t="s">
-        <v>69</v>
-      </c>
-      <c r="C119" t="s">
-        <v>66</v>
-      </c>
-      <c r="D119" t="s">
-        <v>106</v>
-      </c>
-      <c r="E119" t="s">
-        <v>7</v>
-      </c>
-      <c r="F119" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>20330051920282</v>
-      </c>
-      <c r="B120" t="s">
-        <v>69</v>
-      </c>
-      <c r="C120" t="s">
-        <v>66</v>
-      </c>
-      <c r="D120" t="s">
-        <v>106</v>
-      </c>
-      <c r="E120" t="s">
-        <v>6</v>
-      </c>
-      <c r="F120" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>20330051920282</v>
-      </c>
-      <c r="B121" t="s">
-        <v>69</v>
-      </c>
-      <c r="C121" t="s">
-        <v>66</v>
-      </c>
-      <c r="D121" t="s">
-        <v>106</v>
-      </c>
-      <c r="E121" t="s">
-        <v>5</v>
-      </c>
-      <c r="F121" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>19330051920425</v>
-      </c>
-      <c r="B122" t="s">
-        <v>70</v>
-      </c>
-      <c r="C122" t="s">
-        <v>76</v>
-      </c>
-      <c r="D122" t="s">
-        <v>107</v>
-      </c>
-      <c r="E122" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>19330051920425</v>
-      </c>
-      <c r="B123" t="s">
-        <v>70</v>
-      </c>
-      <c r="C123" t="s">
-        <v>76</v>
-      </c>
-      <c r="D123" t="s">
-        <v>107</v>
-      </c>
-      <c r="E123" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>19330051920425</v>
-      </c>
-      <c r="B124" t="s">
-        <v>70</v>
-      </c>
-      <c r="C124" t="s">
-        <v>76</v>
-      </c>
-      <c r="D124" t="s">
-        <v>107</v>
-      </c>
-      <c r="E124" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>19330051920425</v>
-      </c>
-      <c r="B125" t="s">
-        <v>70</v>
-      </c>
-      <c r="C125" t="s">
-        <v>76</v>
-      </c>
-      <c r="D125" t="s">
-        <v>107</v>
-      </c>
-      <c r="E125" t="s">
-        <v>7</v>
-      </c>
-      <c r="F125" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>19330051920425</v>
-      </c>
-      <c r="B126" t="s">
-        <v>70</v>
-      </c>
-      <c r="C126" t="s">
-        <v>76</v>
-      </c>
-      <c r="D126" t="s">
-        <v>107</v>
-      </c>
-      <c r="E126" t="s">
-        <v>6</v>
-      </c>
-      <c r="F126" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>19330051920425</v>
-      </c>
-      <c r="B127" t="s">
-        <v>70</v>
-      </c>
-      <c r="C127" t="s">
-        <v>76</v>
-      </c>
-      <c r="D127" t="s">
-        <v>107</v>
-      </c>
-      <c r="E127" t="s">
-        <v>5</v>
-      </c>
-      <c r="F127" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5281,70 +3341,70 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920260</v>
+        <v>20330051920261</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920261</v>
+        <v>20330051920267</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920314</v>
+        <v>20330051920278</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920262</v>
+        <v>19330051920425</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5352,288 +3412,288 @@
         <v>20330051920264</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920267</v>
+        <v>20330051920279</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920268</v>
+        <v>20330051920281</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920269</v>
+        <v>20330051920282</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920270</v>
+        <v>19330051920314</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920271</v>
+        <v>20330051920270</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
         <v>79</v>
       </c>
-      <c r="D11" t="s">
-        <v>96</v>
-      </c>
       <c r="E11">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920272</v>
+        <v>20330051920274</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19220030050208</v>
+        <v>19330051920238</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920273</v>
+        <v>20330051920260</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
         <v>99</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920274</v>
+        <v>20330051920262</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
         <v>100</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920276</v>
+        <v>20330051920268</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
         <v>101</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920238</v>
+        <v>20330051920269</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
         <v>102</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920278</v>
+        <v>20330051920271</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
         <v>103</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920279</v>
+        <v>20330051920272</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
         <v>104</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920281</v>
+        <v>19220030050208</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920282</v>
+        <v>20330051920273</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920425</v>
+        <v>20330051920276</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
         <v>107</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5643,7 +3703,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5678,22 +3738,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920268</v>
+        <v>19330051920314</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
         <v>76</v>
-      </c>
-      <c r="D2" t="s">
-        <v>93</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -5701,22 +3761,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920270</v>
+        <v>19330051920314</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -5724,70 +3784,47 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19220030050208</v>
+        <v>20330051920268</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920273</v>
+        <v>20330051920270</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>20330051920276</v>
-      </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/3APV - Estadisticos 20211.xlsx
+++ b/grupos/3APV - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="108">
   <si>
     <t>Materia</t>
   </si>
@@ -149,10 +149,10 @@
     <t>González Nuñez Veronica</t>
   </si>
   <si>
+    <t>Hernández Mendoza Delfina</t>
+  </si>
+  <si>
     <t>Muñoz Rivadeneyra Salvador</t>
-  </si>
-  <si>
-    <t>Hernández Mendoza Delfina</t>
   </si>
   <si>
     <t>Camarillo Aburto Raymundo</t>
@@ -1147,7 +1147,7 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -1201,7 +1201,7 @@
         <v>5</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X8">
         <v>5</v>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
@@ -2571,25 +2571,25 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>52.38</v>
+        <v>57.14</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4">
-        <v>47.62</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2695,7 +2695,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2742,7 +2742,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2782,7 +2782,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2842,7 +2842,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2859,7 +2859,7 @@
         <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
         <v>43</v>
@@ -2867,19 +2867,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920264</v>
+        <v>20330051920267</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
         <v>44</v>
@@ -2899,7 +2899,7 @@
         <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
         <v>43</v>
@@ -2919,10 +2919,10 @@
         <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2939,47 +2939,47 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920267</v>
+        <v>20330051920270</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920270</v>
+        <v>20330051920274</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
         <v>44</v>
@@ -2987,42 +2987,42 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920274</v>
+        <v>19330051920238</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920238</v>
+        <v>20330051920278</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3039,7 +3039,7 @@
         <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
         <v>43</v>
@@ -3059,10 +3059,10 @@
         <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3079,30 +3079,30 @@
         <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920278</v>
+        <v>20330051920279</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3119,7 +3119,7 @@
         <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
         <v>43</v>
@@ -3127,19 +3127,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920279</v>
+        <v>20330051920281</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
         <v>44</v>
@@ -3159,7 +3159,7 @@
         <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
         <v>43</v>
@@ -3167,19 +3167,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920281</v>
+        <v>20330051920282</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
         <v>44</v>
@@ -3199,7 +3199,7 @@
         <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
         <v>43</v>
@@ -3207,19 +3207,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920282</v>
+        <v>19330051920425</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
         <v>44</v>
@@ -3239,7 +3239,7 @@
         <v>86</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
         <v>43</v>
@@ -3259,10 +3259,10 @@
         <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3279,29 +3279,9 @@
         <v>86</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>19330051920425</v>
-      </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3409,16 +3389,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920264</v>
+        <v>20330051920279</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -3426,16 +3406,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920279</v>
+        <v>20330051920281</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -3443,16 +3423,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920281</v>
+        <v>20330051920282</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -3460,33 +3440,33 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920282</v>
+        <v>19330051920314</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920314</v>
+        <v>20330051920264</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -3776,7 +3756,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -3822,7 +3802,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>-1</v>
